--- a/biology/Médecine/Sinus_caverneux/Sinus_caverneux.xlsx
+++ b/biology/Médecine/Sinus_caverneux/Sinus_caverneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sinus caverneux (en latin sinus cavernosus) est un des sinus pair de la dure-mère[1] situé dans la fosse crânienne moyenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sinus caverneux (en latin sinus cavernosus) est un des sinus pair de la dure-mère situé dans la fosse crânienne moyenne.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sinus caverneux sont allongés d'avant en arrière de chaque côté de la selle turcique.
 Ils forment avec les sinus intercaverneux antérieur et postérieur une structure elliptique : le sinus coronaire.
-Le plexus veineux basilaire réalise une anastomose entre les deux extrémités postérieures des sinus caverneux[1].
+Le plexus veineux basilaire réalise une anastomose entre les deux extrémités postérieures des sinus caverneux.
 Le nerf optique se trouve juste au-dessus et à l'extérieur du sinus caverneux.
-Sa cavité est garnie d'une multitude de filaments mous, rougeâtres et irréguliers, qui s'entre-croisent, et à la disposition réticulaire desquels il doit son nom[2].
+Sa cavité est garnie d'une multitude de filaments mous, rougeâtres et irréguliers, qui s'entre-croisent, et à la disposition réticulaire desquels il doit son nom.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Afférences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus caverneux reçoit en haut les veines cérébrales tant antérieures que moyennes et inférieures, en devant la veine ophtalmique supérieure et veine ophtalmique inférieure issues de l’orbite en traversant la fissure orbitaire supérieure (fente sphénoïdale), le sinus sphéno-pariétal, les sinus intercaverneux postérieur et antérieur, le plexus basilaire.
 Le sinus caverneux reçoit parfois directement la veine centrale de la rétine.
@@ -578,7 +594,9 @@
           <t>Efférences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus caverneux se draine dans les sinus pétreux supérieur et inférieur, pour se jeter en fin de compte dans la veine jugulaire interne via le sinus sigmoïde.
 </t>
@@ -609,7 +627,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus caverneux a la particularité d'être traversé par un paquet artério-nerveux contenant l'artère carotide interne et le nerf abducens (nerf crânien VI).
 De plus dans la paroi latérale du sinus se trouvent de haut en bas :
